--- a/biology/Médecine/Jalil_Bennani/Jalil_Bennani.xlsx
+++ b/biology/Médecine/Jalil_Bennani/Jalil_Bennani.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jalil Bennani, né en 1948 à Meknès[1], est un  psychiatre, psychanalyste et écrivain marocain vivant à Rabat[2]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jalil Bennani, né en 1948 à Meknès, est un  psychiatre, psychanalyste et écrivain marocain vivant à Rabat. 
 </t>
         </is>
       </c>
@@ -511,15 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ancien élève de Lucien Bonnafé et Tony Lainé[3], il œuvre depuis 1980[2] pour la transmission de la psychanalyse au Maroc et poursuit des recherches sur l'histoire de la psychanalyse. Il est à l'initiative de la création de plusieurs associations[4]. Il est cofondateur[5] et président du Cercle psychanalytique marocain[6] (2009). Ses principaux ouvrages sont Le Corps suspect, Le Temps des ados en collaboration avec Alain Braconnier, Psychanalyse en terre d'islam[4], qui constitue la première introduction à la psychanalyse au Maghreb,  Un psy dans la cité qui a reçu le prix Grand Atlas en 2014 et Des djinns à la psychanalyse, nouvelle approche des pratiques traditionnelles et contemporaines.
-Arts
-Proche du milieu artistique, il a travaillé et publié avec l'artiste peintre Mohamed Kacimi l'ouvrage Traces et paroles[3]. 
-Il est cofondateur de la "Fondation Kacimi" (2009).
-Université
-En 2011, il obtient l'habilitation à diriger les recherches (HDR) en psychologie (université de Nice Sophia Antipolis, UFR Lettres, Arts et Sciences humaines).
-Membre associé au Centre de recherche Psychanalyse, Médecine et Société (CRPMS), Université Paris Diderot - Paris 7
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ancien élève de Lucien Bonnafé et Tony Lainé, il œuvre depuis 1980 pour la transmission de la psychanalyse au Maroc et poursuit des recherches sur l'histoire de la psychanalyse. Il est à l'initiative de la création de plusieurs associations. Il est cofondateur et président du Cercle psychanalytique marocain (2009). Ses principaux ouvrages sont Le Corps suspect, Le Temps des ados en collaboration avec Alain Braconnier, Psychanalyse en terre d'islam, qui constitue la première introduction à la psychanalyse au Maghreb,  Un psy dans la cité qui a reçu le prix Grand Atlas en 2014 et Des djinns à la psychanalyse, nouvelle approche des pratiques traditionnelles et contemporaines.
 </t>
         </is>
       </c>
@@ -545,10 +553,88 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Arts</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Proche du milieu artistique, il a travaillé et publié avec l'artiste peintre Mohamed Kacimi l'ouvrage Traces et paroles. 
+Il est cofondateur de la "Fondation Kacimi" (2009).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jalil_Bennani</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jalil_Bennani</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Université</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2011, il obtient l'habilitation à diriger les recherches (HDR) en psychologie (université de Nice Sophia Antipolis, UFR Lettres, Arts et Sciences humaines).
+Membre associé au Centre de recherche Psychanalyse, Médecine et Société (CRPMS), Université Paris Diderot - Paris 7
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jalil_Bennani</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jalil_Bennani</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Domaines d'intérêt</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">• Histoire de la psychanalyse dans le monde arabe et islamique : 
 Trois pays sont considérés comme les pionniers de la psychanalyse dans le monde arabe et islamique : l’Égypte, le Liban et le Maroc. Un mouvement psychanalytique existe dans d’autres pays, notamment en Tunisie et en Algérie. Au sein des pays du Maghreb, et plus particulièrement au Maroc, la transmission du projet freudien suscite un intérêt croissant même si elle rencontre des résistances. La psychanalyse interroge la culture et les croyances que celles-ci soient religieuses, maraboutiques ou magiques.
@@ -560,83 +646,192 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Jalil_Bennani</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Jalil_Bennani</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jalil_Bennani</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jalil_Bennani</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Synthèse des travaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jalil Bennani publie en 1980 le livre, Le corps suspect[7], qui traite des rapports entre les migrants et l’institution médicale en France. Peu après il rentre au Maroc, ouvre un cabinet de consultations, participe à l’activité associative et à la recherche. Parallèlement, Jalil Bennani présente des communications au Maroc et au niveau international, donne des interviews, publie des ouvrages. Il dirige des dossiers de revue, collabore à des travaux collectifs et participe à des activités d'enseignement.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jalil Bennani publie en 1980 le livre, Le corps suspect, qui traite des rapports entre les migrants et l’institution médicale en France. Peu après il rentre au Maroc, ouvre un cabinet de consultations, participe à l’activité associative et à la recherche. Parallèlement, Jalil Bennani présente des communications au Maroc et au niveau international, donne des interviews, publie des ouvrages. Il dirige des dossiers de revue, collabore à des travaux collectifs et participe à des activités d'enseignement.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Jalil_Bennani</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Jalil_Bennani</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jalil_Bennani</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jalil_Bennani</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Individuels
-2022: L'espoir viendra du Sud, dialogue au temps du Covid, correspondance avec Roland Gori,éditions La croisée des chemins  (ISBN 978 9920-753-56-2).
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Individuels</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2022: L'espoir viendra du Sud, dialogue au temps du Covid, correspondance avec Roland Gori,éditions La croisée des chemins  (ISBN 978 9920-753-56-2).
 2022: Des djinns à la psychanalyse, nouvelle approche des pratiques traditionnelles et contemporaines, Les presses du réel, Paris.
 2016 : Un si long chemin - Paroles de réfugiés au Maroc, éditions La croisée des chemins,  (ISBN 978-9954-1-0568-9) http://www.huffpostmaghreb.com/2016/06/17/ouvrage-refugies-maroc_n_10527992.html
-2014 : Comment les jeunes changent nos vies[8], éditions La croisée des chemins,  (ISBN 978-9954-1-0463-7) (OCLC 882200524)
-2013 : Un psy dans la cité : Entretiens avec Ahmed El Amraoui[9], éditions La croisée des chemins,  (ISBN 978-9954-1-0424-8) (OCLC 831310472)
+2014 : Comment les jeunes changent nos vies, éditions La croisée des chemins,  (ISBN 978-9954-1-0463-7) (OCLC 882200524)
+2013 : Un psy dans la cité : Entretiens avec Ahmed El Amraoui, éditions La croisée des chemins,  (ISBN 978-9954-1-0424-8) (OCLC 831310472)
 2008 : Traces et paroles, Des adolescents, un peintre, un psychanalyste, en collaboration avec Mohammed Kacimi, éditions Al Manar,  (ISBN 978-2-913896-60-4)
 2008 : Psychanalyse en terre d'islam, Introduction à la psychanalyse au Maghreb, éditions Arcanes-Erès,  (ISBN 978-2-7492-0884-8) (OCLC 470720666)
 2002 : Le temps des ados, avec Alain Braconnier, éditions Le Fennec,  (ISBN 9954-0-0082-8)
 1999 : Parcours d’enfants, Le Fennec,  (ISBN 9954-0-0011-9)
 1996 : La psychanalyse au pays des saints, éditions Le Fennec,  (ISBN 9981-838-32-2)
 1985 : Het sprekende lichaam, Nabije-Oostenreeks, Houten (traduction hollandaise de l’ouvrage Le corps suspect),  (ISBN 90 293 9827 2) CIP
-1980 : Le corps suspect, éditions Galilée, 142 p.  (ISBN 2-7186-0164-7) (OCLC 8272766), 2e édition 2015, La croisée des chemins.
-Direction d'ouvrage
-2012 : "Désirs et sexualités, d'une culture à une autre, d'une langue à une autre", éditions Arcanes Erès,  (ISBN 978-2-7492-1600-3)
-Direction de numéros de revue
-2005 : « Psychanalyser au Maghreb », revue Prologues, coordination du dossier
-1981 : Corps-Langue-Tradition, ouvrage collectif, revue Transitions, no 6, Paris (direction du numéro avec J.F. Reverzy)
-Contribution à des ouvrages collectifs (sélection)
-2021 : Le droit de vivre, Éditions La croisée des chemins, Casablanca
+1980 : Le corps suspect, éditions Galilée, 142 p.  (ISBN 2-7186-0164-7) (OCLC 8272766), 2e édition 2015, La croisée des chemins.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jalil_Bennani</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jalil_Bennani</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Direction d'ouvrage</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2012 : "Désirs et sexualités, d'une culture à une autre, d'une langue à une autre", éditions Arcanes Erès,  (ISBN 978-2-7492-1600-3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jalil_Bennani</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jalil_Bennani</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Direction de numéros de revue</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2005 : « Psychanalyser au Maghreb », revue Prologues, coordination du dossier
+1981 : Corps-Langue-Tradition, ouvrage collectif, revue Transitions, no 6, Paris (direction du numéro avec J.F. Reverzy)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Jalil_Bennani</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jalil_Bennani</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Contribution à des ouvrages collectifs (sélection)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2021 : Le droit de vivre, Éditions La croisée des chemins, Casablanca
 2021 :Ce que nous vivons, Éditions La croisée des chemins, Casablanca
 2018 : Promesses d’Afrique, sous la direction de Mustapha Bencheikh et Yves Geffroy, publications de l’Université Internationale de Rabat.
 2017 : Exil, mémoire, migration, Casa Express, Casablanca, sous la direction de Mustapha Bencheikh et Yves Geffroy, publications de l’Université Internationale de Rabat.
@@ -651,31 +846,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Jalil_Bennani</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Jalil_Bennani</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Jalil_Bennani</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jalil_Bennani</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Activités scientifiques</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>2014 : Co-chair de la section de psychiatrie et psychanalyse de l’Association Mondiale de Psychiatrie
 2013 : Chercheur associé au CRPMS (Centre de recherche, Psychanalyse, Médecine et Société), de l'Université de Paris;
@@ -692,35 +889,37 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Jalil_Bennani</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Jalil_Bennani</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Jalil_Bennani</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jalil_Bennani</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Distinctions scientifiques et honorifiques</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Décembre 2013 : Lauréat du prix Grand Atlas, catégorie « Culturethèque » attribué par le grand public[10]
-30 juillet 2002 : Décoration sous le nom de dr Abdeljalil Bennani par le roi Mohammed VI du Ouissam de la récompense nationale[11]
-2002 : Lauréat du prix international Sigmund-Freud de la ville de Vienne[12] pour l’ensemble de son œuvre[13].
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Décembre 2013 : Lauréat du prix Grand Atlas, catégorie « Culturethèque » attribué par le grand public
+30 juillet 2002 : Décoration sous le nom de dr Abdeljalil Bennani par le roi Mohammed VI du Ouissam de la récompense nationale
+2002 : Lauréat du prix international Sigmund-Freud de la ville de Vienne pour l’ensemble de son œuvre.
 1997 : Lauréat du Prix du président de la République tunisienne des sociétés inter-maghrébines de médecine</t>
         </is>
       </c>
